--- a/hw3_Tabu search/Results.xlsx
+++ b/hw3_Tabu search/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saleh\Desktop\Master\semester 2\advanced algorithms\Hws\hw3_Tabu search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0D4172-3FC4-4A9B-B29F-C21B5DFAAF4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09958FBF-0AF4-481E-8ABC-266DE97388FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2676" yWindow="912" windowWidth="14436" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -744,9 +744,6 @@
     <t>1.1678</t>
   </si>
   <si>
-    <t>764.89</t>
-  </si>
-  <si>
     <t>0.6731</t>
   </si>
   <si>
@@ -817,6 +814,9 @@
   </si>
   <si>
     <t>216.301</t>
+  </si>
+  <si>
+    <t>26457.8</t>
   </si>
 </sst>
 </file>
@@ -1228,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="108" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1384,13 +1384,13 @@
         <v>18515</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F5">
         <v>19325</v>
       </c>
       <c r="G5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -1549,22 +1549,22 @@
         <v>65288</v>
       </c>
       <c r="E10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10">
         <v>73824</v>
       </c>
       <c r="G10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H10" t="s">
         <v>257</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>258</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>259</v>
-      </c>
-      <c r="J10" t="s">
-        <v>260</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="0"/>
@@ -1582,13 +1582,13 @@
         <v>28535</v>
       </c>
       <c r="E11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F11">
         <v>29055</v>
       </c>
       <c r="G11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
@@ -1615,22 +1615,22 @@
         <v>83105</v>
       </c>
       <c r="E12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12">
         <v>84230</v>
       </c>
       <c r="G12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H12" t="s">
+        <v>250</v>
+      </c>
+      <c r="I12" t="s">
         <v>251</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>252</v>
-      </c>
-      <c r="J12" t="s">
-        <v>253</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="0"/>
@@ -1654,7 +1654,7 @@
         <v>6509</v>
       </c>
       <c r="G13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H13" t="s">
         <v>43</v>
@@ -1687,7 +1687,7 @@
         <v>782</v>
       </c>
       <c r="G14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H14" t="s">
         <v>47</v>
@@ -1780,22 +1780,22 @@
         <v>3665</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F17">
         <v>4615</v>
       </c>
       <c r="G17" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" t="s">
         <v>243</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>244</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>245</v>
-      </c>
-      <c r="J17" t="s">
-        <v>246</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="0"/>
@@ -2472,20 +2472,20 @@
       <c r="D38">
         <v>23210</v>
       </c>
-      <c r="E38" t="s">
-        <v>238</v>
+      <c r="E38">
+        <v>24488</v>
       </c>
       <c r="F38">
         <v>25766</v>
       </c>
       <c r="G38" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" t="s">
         <v>239</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>240</v>
-      </c>
-      <c r="I38" t="s">
-        <v>241</v>
       </c>
       <c r="J38" t="s">
         <v>134</v>
@@ -3099,8 +3099,8 @@
       <c r="D57">
         <v>26083</v>
       </c>
-      <c r="E57" s="5">
-        <v>26457.8</v>
+      <c r="E57" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="F57">
         <v>26764</v>
